--- a/data/ALL_TRAITS.xlsx
+++ b/data/ALL_TRAITS.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B5382-4B99-4196-98F0-5736A4A48F0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6C9DB5-6EFD-47AD-9B7E-D106BD599C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$342</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2531,20 +2533,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>263</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>49</v>
       </c>
       <c r="L4">
-        <f>12*7</f>
+        <f t="shared" ref="L4:L9" si="0">12*7</f>
         <v>84</v>
       </c>
       <c r="M4" t="s">
@@ -2859,7 +2861,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>49</v>
       </c>
       <c r="L5">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M5" t="s">
@@ -2937,7 +2939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>49</v>
       </c>
       <c r="L6">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M6" t="s">
@@ -3015,7 +3017,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>49</v>
       </c>
       <c r="L7">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M7" t="s">
@@ -3093,7 +3095,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>49</v>
       </c>
       <c r="L8">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M8" t="s">
@@ -3174,7 +3176,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>49</v>
       </c>
       <c r="L9">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M9" t="s">
@@ -3255,7 +3257,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>289</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>49</v>
       </c>
       <c r="L19">
-        <f>12*7</f>
+        <f t="shared" ref="L19:L28" si="1">12*7</f>
         <v>84</v>
       </c>
       <c r="M19" t="s">
@@ -4056,7 +4058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>289</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>49</v>
       </c>
       <c r="L20">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M20" t="s">
@@ -4137,7 +4139,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>289</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>49</v>
       </c>
       <c r="L21">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M21" t="s">
@@ -4218,7 +4220,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>289</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>49</v>
       </c>
       <c r="L22">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M22" t="s">
@@ -4299,7 +4301,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>49</v>
       </c>
       <c r="L23">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M23" t="s">
@@ -4380,7 +4382,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>49</v>
       </c>
       <c r="L24">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M24" t="s">
@@ -4461,7 +4463,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>289</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>49</v>
       </c>
       <c r="L25">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M25" t="s">
@@ -4542,7 +4544,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>49</v>
       </c>
       <c r="L26">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M26" t="s">
@@ -4623,7 +4625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>49</v>
       </c>
       <c r="L27">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M27" t="s">
@@ -4707,7 +4709,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>49</v>
       </c>
       <c r="L28">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M28" t="s">
@@ -4790,7 +4792,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>306</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>306</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>249</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>263</v>
       </c>
@@ -5264,7 +5266,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>289</v>
       </c>
@@ -5345,7 +5347,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -5582,7 +5584,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -6382,7 +6384,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -6702,7 +6704,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -6939,7 +6941,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -7093,7 +7095,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>263</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>263</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -7564,7 +7566,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>263</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>249</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>289</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>300</v>
       </c>
@@ -8843,7 +8845,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -9157,7 +9159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>289</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>300</v>
       </c>
@@ -9400,7 +9402,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>306</v>
       </c>
@@ -9478,7 +9480,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>306</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -9636,7 +9638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -9796,7 +9798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -9876,7 +9878,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -10036,7 +10038,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -10116,7 +10118,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -10196,7 +10198,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>263</v>
       </c>
@@ -10273,7 +10275,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>263</v>
       </c>
@@ -10350,7 +10352,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -10427,7 +10429,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>263</v>
       </c>
@@ -10504,7 +10506,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>249</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>306</v>
       </c>
@@ -10739,7 +10741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -10819,7 +10821,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -10899,7 +10901,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -10979,7 +10981,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -11059,7 +11061,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -11139,7 +11141,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -11219,7 +11221,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -11379,7 +11381,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -11459,7 +11461,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -11699,7 +11701,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>289</v>
       </c>
@@ -11779,7 +11781,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -11859,7 +11861,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>289</v>
       </c>
@@ -11939,7 +11941,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -12019,7 +12021,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>161</v>
       </c>
@@ -12179,7 +12181,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>289</v>
       </c>
@@ -12259,7 +12261,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -12339,7 +12341,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>161</v>
       </c>
@@ -12419,7 +12421,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -12499,7 +12501,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>161</v>
       </c>
@@ -12579,7 +12581,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>249</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>263</v>
       </c>
@@ -12739,7 +12741,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -12819,7 +12821,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>289</v>
       </c>
@@ -12899,7 +12901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>289</v>
       </c>
@@ -12979,7 +12981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>289</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>289</v>
       </c>
@@ -13140,7 +13142,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -13221,7 +13223,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>289</v>
       </c>
@@ -13302,7 +13304,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>289</v>
       </c>
@@ -13383,7 +13385,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>300</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>300</v>
       </c>
@@ -13547,7 +13549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>306</v>
       </c>
@@ -13627,7 +13629,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>306</v>
       </c>
@@ -13708,7 +13710,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -13788,7 +13790,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -13868,7 +13870,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -13948,7 +13950,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -14028,7 +14030,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -14108,7 +14110,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -14188,7 +14190,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -14268,7 +14270,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -14348,7 +14350,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -14428,7 +14430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -14508,7 +14510,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -14588,7 +14590,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -14668,7 +14670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>249</v>
       </c>
@@ -14748,7 +14750,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>249</v>
       </c>
@@ -14828,7 +14830,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>249</v>
       </c>
@@ -14908,7 +14910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>249</v>
       </c>
@@ -14988,7 +14990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -15065,7 +15067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>263</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>263</v>
       </c>
@@ -15296,7 +15298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -15376,7 +15378,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -15456,7 +15458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -15536,7 +15538,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -15616,7 +15618,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -15696,7 +15698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -15773,7 +15775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -15853,7 +15855,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -15933,7 +15935,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>263</v>
       </c>
@@ -16013,7 +16015,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>300</v>
       </c>
@@ -16095,7 +16097,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>161</v>
       </c>
@@ -16175,7 +16177,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>161</v>
       </c>
@@ -16255,7 +16257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -16335,7 +16337,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -16415,7 +16417,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>161</v>
       </c>
@@ -16495,7 +16497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>161</v>
       </c>
@@ -16575,7 +16577,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>161</v>
       </c>
@@ -16655,7 +16657,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>161</v>
       </c>
@@ -16735,7 +16737,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>161</v>
       </c>
@@ -16815,7 +16817,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>161</v>
       </c>
@@ -16895,7 +16897,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>161</v>
       </c>
@@ -16975,7 +16977,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>161</v>
       </c>
@@ -17055,7 +17057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>161</v>
       </c>
@@ -17135,7 +17137,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>161</v>
       </c>
@@ -17215,7 +17217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>161</v>
       </c>
@@ -17295,7 +17297,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -17375,7 +17377,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -17456,7 +17458,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>249</v>
       </c>
@@ -17537,7 +17539,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -17618,7 +17620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>249</v>
       </c>
@@ -17699,7 +17701,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>263</v>
       </c>
@@ -17779,7 +17781,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>263</v>
       </c>
@@ -17859,7 +17861,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>263</v>
       </c>
@@ -17939,7 +17941,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>263</v>
       </c>
@@ -18019,7 +18021,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>161</v>
       </c>
@@ -18099,7 +18101,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>161</v>
       </c>
@@ -18179,7 +18181,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>161</v>
       </c>
@@ -18259,7 +18261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>161</v>
       </c>
@@ -18339,7 +18341,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>161</v>
       </c>
@@ -18419,7 +18421,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>161</v>
       </c>
@@ -18499,7 +18501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>161</v>
       </c>
@@ -18579,7 +18581,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>161</v>
       </c>
@@ -18659,7 +18661,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>161</v>
       </c>
@@ -18739,7 +18741,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>161</v>
       </c>
@@ -18819,7 +18821,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>161</v>
       </c>
@@ -18899,7 +18901,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>161</v>
       </c>
@@ -18979,7 +18981,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>161</v>
       </c>
@@ -19059,7 +19061,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>161</v>
       </c>
@@ -19139,7 +19141,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>161</v>
       </c>
@@ -19219,7 +19221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -19299,7 +19301,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>161</v>
       </c>
@@ -19379,7 +19381,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>161</v>
       </c>
@@ -19459,7 +19461,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>249</v>
       </c>
@@ -19539,7 +19541,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>249</v>
       </c>
@@ -19619,7 +19621,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>249</v>
       </c>
@@ -19699,7 +19701,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>249</v>
       </c>
@@ -19779,7 +19781,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>249</v>
       </c>
@@ -19859,7 +19861,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -19939,7 +19941,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>289</v>
       </c>
@@ -19974,7 +19976,7 @@
         <v>31</v>
       </c>
       <c r="L219">
-        <f>30*6</f>
+        <f t="shared" ref="L219:L251" si="2">30*6</f>
         <v>180</v>
       </c>
       <c r="M219" t="s">
@@ -20020,7 +20022,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>289</v>
       </c>
@@ -20055,7 +20057,7 @@
         <v>31</v>
       </c>
       <c r="L220">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M220" t="s">
@@ -20101,7 +20103,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>289</v>
       </c>
@@ -20136,7 +20138,7 @@
         <v>31</v>
       </c>
       <c r="L221">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M221" t="s">
@@ -20182,7 +20184,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>289</v>
       </c>
@@ -20217,7 +20219,7 @@
         <v>31</v>
       </c>
       <c r="L222">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M222" t="s">
@@ -20263,7 +20265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>289</v>
       </c>
@@ -20298,7 +20300,7 @@
         <v>31</v>
       </c>
       <c r="L223">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M223" t="s">
@@ -20344,7 +20346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>289</v>
       </c>
@@ -20379,7 +20381,7 @@
         <v>31</v>
       </c>
       <c r="L224">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M224" t="s">
@@ -20425,7 +20427,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>289</v>
       </c>
@@ -20460,7 +20462,7 @@
         <v>31</v>
       </c>
       <c r="L225">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M225" t="s">
@@ -20506,7 +20508,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>289</v>
       </c>
@@ -20541,7 +20543,7 @@
         <v>31</v>
       </c>
       <c r="L226">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M226" t="s">
@@ -20587,7 +20589,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>289</v>
       </c>
@@ -20622,7 +20624,7 @@
         <v>31</v>
       </c>
       <c r="L227">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M227" t="s">
@@ -20668,7 +20670,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>289</v>
       </c>
@@ -20703,7 +20705,7 @@
         <v>31</v>
       </c>
       <c r="L228">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M228" t="s">
@@ -20749,7 +20751,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>289</v>
       </c>
@@ -20784,7 +20786,7 @@
         <v>31</v>
       </c>
       <c r="L229">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M229" t="s">
@@ -20830,7 +20832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>289</v>
       </c>
@@ -20865,7 +20867,7 @@
         <v>31</v>
       </c>
       <c r="L230">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M230" t="s">
@@ -20911,7 +20913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>289</v>
       </c>
@@ -20946,7 +20948,7 @@
         <v>31</v>
       </c>
       <c r="L231">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M231" t="s">
@@ -20992,7 +20994,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>289</v>
       </c>
@@ -21027,7 +21029,7 @@
         <v>31</v>
       </c>
       <c r="L232">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M232" t="s">
@@ -21073,7 +21075,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>289</v>
       </c>
@@ -21108,7 +21110,7 @@
         <v>31</v>
       </c>
       <c r="L233">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M233" t="s">
@@ -21154,7 +21156,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>289</v>
       </c>
@@ -21189,7 +21191,7 @@
         <v>31</v>
       </c>
       <c r="L234">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M234" t="s">
@@ -21235,7 +21237,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>289</v>
       </c>
@@ -21270,7 +21272,7 @@
         <v>31</v>
       </c>
       <c r="L235">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M235" t="s">
@@ -21316,7 +21318,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>289</v>
       </c>
@@ -21351,7 +21353,7 @@
         <v>31</v>
       </c>
       <c r="L236">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M236" t="s">
@@ -21397,7 +21399,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -21432,7 +21434,7 @@
         <v>31</v>
       </c>
       <c r="L237">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M237" t="s">
@@ -21478,7 +21480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>289</v>
       </c>
@@ -21513,7 +21515,7 @@
         <v>31</v>
       </c>
       <c r="L238">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M238" t="s">
@@ -21559,7 +21561,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>289</v>
       </c>
@@ -21594,7 +21596,7 @@
         <v>31</v>
       </c>
       <c r="L239">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M239" t="s">
@@ -21640,7 +21642,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>306</v>
       </c>
@@ -21675,7 +21677,7 @@
         <v>31</v>
       </c>
       <c r="L240">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M240" t="s">
@@ -21721,7 +21723,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>306</v>
       </c>
@@ -21756,7 +21758,7 @@
         <v>31</v>
       </c>
       <c r="L241">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M241" t="s">
@@ -21802,7 +21804,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>306</v>
       </c>
@@ -21837,7 +21839,7 @@
         <v>31</v>
       </c>
       <c r="L242">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M242" t="s">
@@ -21883,7 +21885,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>306</v>
       </c>
@@ -21918,7 +21920,7 @@
         <v>31</v>
       </c>
       <c r="L243">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M243" t="s">
@@ -21964,7 +21966,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>306</v>
       </c>
@@ -21999,7 +22001,7 @@
         <v>31</v>
       </c>
       <c r="L244">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M244" t="s">
@@ -22045,7 +22047,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>306</v>
       </c>
@@ -22080,7 +22082,7 @@
         <v>31</v>
       </c>
       <c r="L245">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M245" t="s">
@@ -22126,7 +22128,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>306</v>
       </c>
@@ -22161,7 +22163,7 @@
         <v>31</v>
       </c>
       <c r="L246">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M246" t="s">
@@ -22207,7 +22209,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>306</v>
       </c>
@@ -22242,7 +22244,7 @@
         <v>31</v>
       </c>
       <c r="L247">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M247" t="s">
@@ -22288,7 +22290,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>306</v>
       </c>
@@ -22323,7 +22325,7 @@
         <v>31</v>
       </c>
       <c r="L248">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M248" t="s">
@@ -22369,7 +22371,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>306</v>
       </c>
@@ -22404,7 +22406,7 @@
         <v>31</v>
       </c>
       <c r="L249">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M249" t="s">
@@ -22450,7 +22452,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>306</v>
       </c>
@@ -22485,7 +22487,7 @@
         <v>31</v>
       </c>
       <c r="L250">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M250" t="s">
@@ -22531,7 +22533,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>306</v>
       </c>
@@ -22566,7 +22568,7 @@
         <v>31</v>
       </c>
       <c r="L251">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="M251" t="s">
@@ -22612,7 +22614,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>161</v>
       </c>
@@ -22692,7 +22694,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>249</v>
       </c>
@@ -22772,7 +22774,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>306</v>
       </c>
@@ -22852,7 +22854,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>306</v>
       </c>
@@ -22932,7 +22934,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>161</v>
       </c>
@@ -23012,7 +23014,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>161</v>
       </c>
@@ -23092,7 +23094,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>161</v>
       </c>
@@ -23172,7 +23174,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>161</v>
       </c>
@@ -23252,7 +23254,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>161</v>
       </c>
@@ -23332,7 +23334,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>161</v>
       </c>
@@ -23412,7 +23414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>249</v>
       </c>
@@ -23492,7 +23494,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>289</v>
       </c>
@@ -23572,7 +23574,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>300</v>
       </c>
@@ -23652,7 +23654,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>300</v>
       </c>
@@ -23732,7 +23734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>306</v>
       </c>
@@ -23810,7 +23812,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>306</v>
       </c>
@@ -23888,7 +23890,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>306</v>
       </c>
@@ -23965,7 +23967,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>306</v>
       </c>
@@ -24042,7 +24044,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>161</v>
       </c>
@@ -24122,7 +24124,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>161</v>
       </c>
@@ -24202,7 +24204,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>161</v>
       </c>
@@ -24282,7 +24284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>161</v>
       </c>
@@ -24362,7 +24364,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>161</v>
       </c>
@@ -24442,7 +24444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>161</v>
       </c>
@@ -24522,7 +24524,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>161</v>
       </c>
@@ -24602,7 +24604,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>161</v>
       </c>
@@ -24682,7 +24684,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>161</v>
       </c>
@@ -24762,7 +24764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>161</v>
       </c>
@@ -24842,7 +24844,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>263</v>
       </c>
@@ -24919,7 +24921,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>263</v>
       </c>
@@ -24996,7 +24998,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -25073,7 +25075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>263</v>
       </c>
@@ -25150,7 +25152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -25227,7 +25229,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>263</v>
       </c>
@@ -25304,7 +25306,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>263</v>
       </c>
@@ -25381,7 +25383,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>263</v>
       </c>
@@ -25458,7 +25460,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>161</v>
       </c>
@@ -25538,7 +25540,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>161</v>
       </c>
@@ -25618,7 +25620,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>161</v>
       </c>
@@ -25698,7 +25700,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>161</v>
       </c>
@@ -25778,7 +25780,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>249</v>
       </c>
@@ -25858,7 +25860,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>249</v>
       </c>
@@ -25938,7 +25940,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>249</v>
       </c>
@@ -26018,7 +26020,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>263</v>
       </c>
@@ -26095,7 +26097,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>263</v>
       </c>
@@ -26172,7 +26174,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>306</v>
       </c>
@@ -26253,7 +26255,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>306</v>
       </c>
@@ -26334,7 +26336,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>161</v>
       </c>
@@ -26414,7 +26416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>161</v>
       </c>
@@ -26494,7 +26496,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>161</v>
       </c>
@@ -26574,7 +26576,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>161</v>
       </c>
@@ -26654,7 +26656,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>161</v>
       </c>
@@ -26734,7 +26736,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>161</v>
       </c>
@@ -26814,7 +26816,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>161</v>
       </c>
@@ -26894,7 +26896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>161</v>
       </c>
@@ -26974,7 +26976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>263</v>
       </c>
@@ -27051,7 +27053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>263</v>
       </c>
@@ -27128,7 +27130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>263</v>
       </c>
@@ -27205,7 +27207,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>263</v>
       </c>
@@ -27282,7 +27284,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>263</v>
       </c>
@@ -27359,7 +27361,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>263</v>
       </c>
@@ -27436,7 +27438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>263</v>
       </c>
@@ -27513,7 +27515,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>263</v>
       </c>
@@ -27590,7 +27592,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>289</v>
       </c>
@@ -27670,7 +27672,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>289</v>
       </c>
@@ -27750,7 +27752,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>289</v>
       </c>
@@ -27830,7 +27832,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>289</v>
       </c>
@@ -27910,7 +27912,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>289</v>
       </c>
@@ -27990,7 +27992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>289</v>
       </c>
@@ -28070,7 +28072,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>289</v>
       </c>
@@ -28150,7 +28152,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>289</v>
       </c>
@@ -28230,7 +28232,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>289</v>
       </c>
@@ -28310,7 +28312,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>289</v>
       </c>
@@ -28390,7 +28392,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>289</v>
       </c>
@@ -28470,7 +28472,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>289</v>
       </c>
@@ -28550,7 +28552,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>306</v>
       </c>
@@ -28630,7 +28632,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>306</v>
       </c>
@@ -28710,7 +28712,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>306</v>
       </c>
@@ -28790,7 +28792,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>306</v>
       </c>
@@ -28870,7 +28872,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>161</v>
       </c>
@@ -28947,7 +28949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>161</v>
       </c>
@@ -29024,7 +29026,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>161</v>
       </c>
@@ -29101,7 +29103,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>161</v>
       </c>
@@ -29178,7 +29180,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>161</v>
       </c>
@@ -29258,7 +29260,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>161</v>
       </c>
@@ -29338,7 +29340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>161</v>
       </c>
@@ -29418,7 +29420,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>161</v>
       </c>
@@ -29498,7 +29500,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>249</v>
       </c>
@@ -29578,7 +29580,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>249</v>
       </c>
@@ -29658,7 +29660,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>289</v>
       </c>
@@ -29736,7 +29738,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>289</v>
       </c>
@@ -29815,7 +29817,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z343">
+  <autoFilter ref="A1:Z342" xr:uid="{595B237C-1951-446E-B0B5-28ED90A36221}"/>
+  <sortState ref="A2:Z343">
     <sortCondition ref="J2:J343"/>
   </sortState>
   <conditionalFormatting sqref="D209">
@@ -29943,13 +29946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3823DB-29A5-485C-B422-A06DEA90CE50}">
   <dimension ref="A1:Z224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -30029,7 +30032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -30109,7 +30112,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -30189,7 +30192,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -30269,7 +30272,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -30349,7 +30352,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -30429,7 +30432,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -30509,7 +30512,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -30589,7 +30592,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -30669,7 +30672,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -30749,7 +30752,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -30829,7 +30832,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -30909,7 +30912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -30989,7 +30992,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -31069,7 +31072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -31150,7 +31153,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -31231,7 +31234,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -31312,7 +31315,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -31393,7 +31396,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>300</v>
       </c>
@@ -31475,7 +31478,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -31557,7 +31560,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>306</v>
       </c>
@@ -31637,7 +31640,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>306</v>
       </c>
@@ -31718,7 +31721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -31798,7 +31801,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -31878,7 +31881,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -31958,7 +31961,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -32038,7 +32041,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -32118,7 +32121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -32198,7 +32201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -32278,7 +32281,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -32358,7 +32361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -32438,7 +32441,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -32518,7 +32521,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -32598,7 +32601,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -32678,7 +32681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -32758,7 +32761,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -32838,7 +32841,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -32918,7 +32921,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>249</v>
       </c>
@@ -32998,7 +33001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -33075,7 +33078,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -33152,7 +33155,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>263</v>
       </c>
@@ -33229,7 +33232,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>263</v>
       </c>
@@ -33306,7 +33309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -33386,7 +33389,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -33466,7 +33469,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -33546,7 +33549,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -33626,7 +33629,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -33706,7 +33709,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>263</v>
       </c>
@@ -33783,7 +33786,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -33863,7 +33866,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -33943,7 +33946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>263</v>
       </c>
@@ -34023,7 +34026,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>300</v>
       </c>
@@ -34105,7 +34108,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -34185,7 +34188,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -34265,7 +34268,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -34345,7 +34348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -34425,7 +34428,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -34505,7 +34508,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -34585,7 +34588,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -34665,7 +34668,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -34745,7 +34748,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -34825,7 +34828,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -34905,7 +34908,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -34985,7 +34988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -35065,7 +35068,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -35145,7 +35148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -35225,7 +35228,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -35305,7 +35308,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -35385,7 +35388,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -35466,7 +35469,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -35547,7 +35550,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -35628,7 +35631,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -35709,7 +35712,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -35789,7 +35792,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>263</v>
       </c>
@@ -35869,7 +35872,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -35949,7 +35952,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -36029,7 +36032,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -36109,7 +36112,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -36189,7 +36192,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -36269,7 +36272,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -36349,7 +36352,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -36429,7 +36432,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -36509,7 +36512,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -36589,7 +36592,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -36669,7 +36672,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -36749,7 +36752,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -36829,7 +36832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -36909,7 +36912,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -36989,7 +36992,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -37069,7 +37072,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -37149,7 +37152,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -37229,7 +37232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -37309,7 +37312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -37389,7 +37392,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -37469,7 +37472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>249</v>
       </c>
@@ -37549,7 +37552,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>249</v>
       </c>
@@ -37629,7 +37632,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>249</v>
       </c>
@@ -37709,7 +37712,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>249</v>
       </c>
@@ -37789,7 +37792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>249</v>
       </c>
@@ -37869,7 +37872,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>249</v>
       </c>
@@ -37949,7 +37952,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -37984,7 +37987,7 @@
         <v>31</v>
       </c>
       <c r="L101">
-        <f>30*6</f>
+        <f t="shared" ref="L101:L133" si="0">30*6</f>
         <v>180</v>
       </c>
       <c r="M101" t="s">
@@ -38030,7 +38033,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>289</v>
       </c>
@@ -38065,7 +38068,7 @@
         <v>31</v>
       </c>
       <c r="L102">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M102" t="s">
@@ -38111,7 +38114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>289</v>
       </c>
@@ -38146,7 +38149,7 @@
         <v>31</v>
       </c>
       <c r="L103">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M103" t="s">
@@ -38192,7 +38195,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>289</v>
       </c>
@@ -38227,7 +38230,7 @@
         <v>31</v>
       </c>
       <c r="L104">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M104" t="s">
@@ -38273,7 +38276,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -38308,7 +38311,7 @@
         <v>31</v>
       </c>
       <c r="L105">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M105" t="s">
@@ -38354,7 +38357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>289</v>
       </c>
@@ -38389,7 +38392,7 @@
         <v>31</v>
       </c>
       <c r="L106">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M106" t="s">
@@ -38435,7 +38438,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>289</v>
       </c>
@@ -38470,7 +38473,7 @@
         <v>31</v>
       </c>
       <c r="L107">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M107" t="s">
@@ -38516,7 +38519,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>289</v>
       </c>
@@ -38551,7 +38554,7 @@
         <v>31</v>
       </c>
       <c r="L108">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M108" t="s">
@@ -38597,7 +38600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>289</v>
       </c>
@@ -38632,7 +38635,7 @@
         <v>31</v>
       </c>
       <c r="L109">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M109" t="s">
@@ -38678,7 +38681,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>289</v>
       </c>
@@ -38713,7 +38716,7 @@
         <v>31</v>
       </c>
       <c r="L110">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M110" t="s">
@@ -38759,7 +38762,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>289</v>
       </c>
@@ -38794,7 +38797,7 @@
         <v>31</v>
       </c>
       <c r="L111">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M111" t="s">
@@ -38840,7 +38843,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>289</v>
       </c>
@@ -38875,7 +38878,7 @@
         <v>31</v>
       </c>
       <c r="L112">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M112" t="s">
@@ -38921,7 +38924,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>289</v>
       </c>
@@ -38956,7 +38959,7 @@
         <v>31</v>
       </c>
       <c r="L113">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M113" t="s">
@@ -39002,7 +39005,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>289</v>
       </c>
@@ -39037,7 +39040,7 @@
         <v>31</v>
       </c>
       <c r="L114">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M114" t="s">
@@ -39083,7 +39086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>289</v>
       </c>
@@ -39118,7 +39121,7 @@
         <v>31</v>
       </c>
       <c r="L115">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M115" t="s">
@@ -39164,7 +39167,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>289</v>
       </c>
@@ -39199,7 +39202,7 @@
         <v>31</v>
       </c>
       <c r="L116">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M116" t="s">
@@ -39245,7 +39248,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -39280,7 +39283,7 @@
         <v>31</v>
       </c>
       <c r="L117">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M117" t="s">
@@ -39326,7 +39329,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>289</v>
       </c>
@@ -39361,7 +39364,7 @@
         <v>31</v>
       </c>
       <c r="L118">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M118" t="s">
@@ -39407,7 +39410,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>289</v>
       </c>
@@ -39442,7 +39445,7 @@
         <v>31</v>
       </c>
       <c r="L119">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M119" t="s">
@@ -39488,7 +39491,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -39523,7 +39526,7 @@
         <v>31</v>
       </c>
       <c r="L120">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M120" t="s">
@@ -39569,7 +39572,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>289</v>
       </c>
@@ -39604,7 +39607,7 @@
         <v>31</v>
       </c>
       <c r="L121">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M121" t="s">
@@ -39650,7 +39653,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -39685,7 +39688,7 @@
         <v>31</v>
       </c>
       <c r="L122">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M122" t="s">
@@ -39731,7 +39734,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>306</v>
       </c>
@@ -39766,7 +39769,7 @@
         <v>31</v>
       </c>
       <c r="L123">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M123" t="s">
@@ -39812,7 +39815,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>306</v>
       </c>
@@ -39847,7 +39850,7 @@
         <v>31</v>
       </c>
       <c r="L124">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M124" t="s">
@@ -39893,7 +39896,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>306</v>
       </c>
@@ -39928,7 +39931,7 @@
         <v>31</v>
       </c>
       <c r="L125">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M125" t="s">
@@ -39974,7 +39977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>306</v>
       </c>
@@ -40009,7 +40012,7 @@
         <v>31</v>
       </c>
       <c r="L126">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M126" t="s">
@@ -40055,7 +40058,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>306</v>
       </c>
@@ -40090,7 +40093,7 @@
         <v>31</v>
       </c>
       <c r="L127">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M127" t="s">
@@ -40136,7 +40139,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>306</v>
       </c>
@@ -40171,7 +40174,7 @@
         <v>31</v>
       </c>
       <c r="L128">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M128" t="s">
@@ -40217,7 +40220,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>306</v>
       </c>
@@ -40252,7 +40255,7 @@
         <v>31</v>
       </c>
       <c r="L129">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M129" t="s">
@@ -40298,7 +40301,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>306</v>
       </c>
@@ -40333,7 +40336,7 @@
         <v>31</v>
       </c>
       <c r="L130">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M130" t="s">
@@ -40379,7 +40382,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>306</v>
       </c>
@@ -40414,7 +40417,7 @@
         <v>31</v>
       </c>
       <c r="L131">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M131" t="s">
@@ -40460,7 +40463,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>306</v>
       </c>
@@ -40495,7 +40498,7 @@
         <v>31</v>
       </c>
       <c r="L132">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M132" t="s">
@@ -40541,7 +40544,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>306</v>
       </c>
@@ -40576,7 +40579,7 @@
         <v>31</v>
       </c>
       <c r="L133">
-        <f>30*6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="M133" t="s">
@@ -40622,7 +40625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -40702,7 +40705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>249</v>
       </c>
@@ -40782,7 +40785,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>306</v>
       </c>
@@ -40862,7 +40865,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -40942,7 +40945,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>161</v>
       </c>
@@ -41022,7 +41025,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>161</v>
       </c>
@@ -41102,7 +41105,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -41182,7 +41185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -41262,7 +41265,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -41342,7 +41345,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -41422,7 +41425,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>249</v>
       </c>
@@ -41502,7 +41505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -41582,7 +41585,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>300</v>
       </c>
@@ -41662,7 +41665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -41742,7 +41745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -41820,7 +41823,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>306</v>
       </c>
@@ -41898,7 +41901,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -41975,7 +41978,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>306</v>
       </c>
@@ -42052,7 +42055,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -42132,7 +42135,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -42212,7 +42215,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -42292,7 +42295,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -42372,7 +42375,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -42452,7 +42455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -42532,7 +42535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -42612,7 +42615,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -42692,7 +42695,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -42772,7 +42775,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -42852,7 +42855,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>263</v>
       </c>
@@ -42929,7 +42932,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>263</v>
       </c>
@@ -43006,7 +43009,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>263</v>
       </c>
@@ -43083,7 +43086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>263</v>
       </c>
@@ -43160,7 +43163,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -43237,7 +43240,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>263</v>
       </c>
@@ -43314,7 +43317,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>263</v>
       </c>
@@ -43391,7 +43394,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>263</v>
       </c>
@@ -43468,7 +43471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -43548,7 +43551,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>161</v>
       </c>
@@ -43628,7 +43631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>161</v>
       </c>
@@ -43708,7 +43711,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -43788,7 +43791,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>249</v>
       </c>
@@ -43868,7 +43871,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>249</v>
       </c>
@@ -43948,7 +43951,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>249</v>
       </c>
@@ -44028,7 +44031,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>263</v>
       </c>
@@ -44105,7 +44108,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>263</v>
       </c>
@@ -44182,7 +44185,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>306</v>
       </c>
@@ -44263,7 +44266,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>306</v>
       </c>
@@ -44344,7 +44347,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>161</v>
       </c>
@@ -44424,7 +44427,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>161</v>
       </c>
@@ -44504,7 +44507,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>161</v>
       </c>
@@ -44584,7 +44587,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>161</v>
       </c>
@@ -44664,7 +44667,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>161</v>
       </c>
@@ -44744,7 +44747,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -44824,7 +44827,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>161</v>
       </c>
@@ -44904,7 +44907,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>161</v>
       </c>
@@ -44984,7 +44987,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>263</v>
       </c>
@@ -45061,7 +45064,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>263</v>
       </c>
@@ -45138,7 +45141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>263</v>
       </c>
@@ -45215,7 +45218,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>263</v>
       </c>
@@ -45292,7 +45295,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>263</v>
       </c>
@@ -45369,7 +45372,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>263</v>
       </c>
@@ -45446,7 +45449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>263</v>
       </c>
@@ -45523,7 +45526,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>263</v>
       </c>
@@ -45600,7 +45603,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>289</v>
       </c>
@@ -45680,7 +45683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>289</v>
       </c>
@@ -45760,7 +45763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>289</v>
       </c>
@@ -45840,7 +45843,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>289</v>
       </c>
@@ -45920,7 +45923,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>289</v>
       </c>
@@ -46000,7 +46003,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>289</v>
       </c>
@@ -46080,7 +46083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>289</v>
       </c>
@@ -46160,7 +46163,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>289</v>
       </c>
@@ -46240,7 +46243,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>289</v>
       </c>
@@ -46320,7 +46323,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>289</v>
       </c>
@@ -46400,7 +46403,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>289</v>
       </c>
@@ -46480,7 +46483,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>289</v>
       </c>
@@ -46560,7 +46563,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>306</v>
       </c>
@@ -46640,7 +46643,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>306</v>
       </c>
@@ -46720,7 +46723,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>306</v>
       </c>
@@ -46800,7 +46803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>306</v>
       </c>
@@ -46880,7 +46883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>161</v>
       </c>
@@ -46957,7 +46960,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>161</v>
       </c>
@@ -47034,7 +47037,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>161</v>
       </c>
@@ -47111,7 +47114,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>161</v>
       </c>
@@ -47188,7 +47191,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>161</v>
       </c>
@@ -47268,7 +47271,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>161</v>
       </c>
@@ -47348,7 +47351,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>161</v>
       </c>
@@ -47428,7 +47431,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>161</v>
       </c>
@@ -47508,7 +47511,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>249</v>
       </c>
@@ -47588,7 +47591,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>249</v>
       </c>
@@ -47668,7 +47671,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>289</v>
       </c>
@@ -47746,7 +47749,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>289</v>
       </c>
@@ -47954,9 +47957,9 @@
       <selection sqref="A1:XFD119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -48036,7 +48039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -48116,7 +48119,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>263</v>
       </c>
@@ -48193,7 +48196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -48228,7 +48231,7 @@
         <v>49</v>
       </c>
       <c r="L4">
-        <f>12*7</f>
+        <f t="shared" ref="L4:L9" si="0">12*7</f>
         <v>84</v>
       </c>
       <c r="M4" t="s">
@@ -48271,7 +48274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>289</v>
       </c>
@@ -48306,7 +48309,7 @@
         <v>49</v>
       </c>
       <c r="L5">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M5" t="s">
@@ -48349,7 +48352,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -48384,7 +48387,7 @@
         <v>49</v>
       </c>
       <c r="L6">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M6" t="s">
@@ -48427,7 +48430,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -48462,7 +48465,7 @@
         <v>49</v>
       </c>
       <c r="L7">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M7" t="s">
@@ -48505,7 +48508,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -48540,7 +48543,7 @@
         <v>49</v>
       </c>
       <c r="L8">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M8" t="s">
@@ -48586,7 +48589,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -48621,7 +48624,7 @@
         <v>49</v>
       </c>
       <c r="L9">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="M9" t="s">
@@ -48667,7 +48670,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -48747,7 +48750,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -48827,7 +48830,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -48907,7 +48910,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -48987,7 +48990,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -49067,7 +49070,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -49147,7 +49150,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -49227,7 +49230,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -49307,7 +49310,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -49387,7 +49390,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>289</v>
       </c>
@@ -49422,7 +49425,7 @@
         <v>49</v>
       </c>
       <c r="L19">
-        <f>12*7</f>
+        <f t="shared" ref="L19:L28" si="1">12*7</f>
         <v>84</v>
       </c>
       <c r="M19" t="s">
@@ -49468,7 +49471,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>289</v>
       </c>
@@ -49503,7 +49506,7 @@
         <v>49</v>
       </c>
       <c r="L20">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M20" t="s">
@@ -49549,7 +49552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>289</v>
       </c>
@@ -49584,7 +49587,7 @@
         <v>49</v>
       </c>
       <c r="L21">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M21" t="s">
@@ -49630,7 +49633,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>289</v>
       </c>
@@ -49665,7 +49668,7 @@
         <v>49</v>
       </c>
       <c r="L22">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M22" t="s">
@@ -49711,7 +49714,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -49746,7 +49749,7 @@
         <v>49</v>
       </c>
       <c r="L23">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M23" t="s">
@@ -49792,7 +49795,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -49827,7 +49830,7 @@
         <v>49</v>
       </c>
       <c r="L24">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M24" t="s">
@@ -49873,7 +49876,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>289</v>
       </c>
@@ -49908,7 +49911,7 @@
         <v>49</v>
       </c>
       <c r="L25">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M25" t="s">
@@ -49954,7 +49957,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -49989,7 +49992,7 @@
         <v>49</v>
       </c>
       <c r="L26">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M26" t="s">
@@ -50035,7 +50038,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -50070,7 +50073,7 @@
         <v>49</v>
       </c>
       <c r="L27">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M27" t="s">
@@ -50119,7 +50122,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -50154,7 +50157,7 @@
         <v>49</v>
       </c>
       <c r="L28">
-        <f>12*7</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M28" t="s">
@@ -50202,7 +50205,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>306</v>
       </c>
@@ -50282,7 +50285,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>306</v>
       </c>
@@ -50362,7 +50365,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -50442,7 +50445,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -50522,7 +50525,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>249</v>
       </c>
@@ -50599,7 +50602,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>263</v>
       </c>
@@ -50676,7 +50679,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>289</v>
       </c>
@@ -50757,7 +50760,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -50834,7 +50837,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -50914,7 +50917,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -50994,7 +50997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -51074,7 +51077,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -51154,7 +51157,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -51234,7 +51237,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -51314,7 +51317,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -51394,7 +51397,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -51474,7 +51477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -51554,7 +51557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -51634,7 +51637,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -51714,7 +51717,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -51794,7 +51797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -51874,7 +51877,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -51954,7 +51957,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -52034,7 +52037,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -52114,7 +52117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -52194,7 +52197,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -52274,7 +52277,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>263</v>
       </c>
@@ -52351,7 +52354,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -52428,7 +52431,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -52505,7 +52508,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -52582,7 +52585,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>263</v>
       </c>
@@ -52659,7 +52662,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>263</v>
       </c>
@@ -52736,7 +52739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -52816,7 +52819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -52896,7 +52899,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -52976,7 +52979,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -53056,7 +53059,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -53136,7 +53139,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>263</v>
       </c>
@@ -53213,7 +53216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -53293,7 +53296,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -53373,7 +53376,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -53453,7 +53456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -53533,7 +53536,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -53613,7 +53616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -53693,7 +53696,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -53773,7 +53776,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -53853,7 +53856,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>249</v>
       </c>
@@ -53933,7 +53936,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -54013,7 +54016,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>263</v>
       </c>
@@ -54093,7 +54096,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>289</v>
       </c>
@@ -54173,7 +54176,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>300</v>
       </c>
@@ -54255,7 +54258,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>306</v>
       </c>
@@ -54329,7 +54332,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -54409,7 +54412,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -54489,7 +54492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -54569,7 +54572,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>289</v>
       </c>
@@ -54650,7 +54653,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -54731,7 +54734,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>300</v>
       </c>
@@ -54812,7 +54815,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>306</v>
       </c>
@@ -54890,7 +54893,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>306</v>
       </c>
@@ -54968,7 +54971,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -55048,7 +55051,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -55128,7 +55131,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -55208,7 +55211,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -55288,7 +55291,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -55368,7 +55371,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -55448,7 +55451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -55528,7 +55531,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -55608,7 +55611,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>263</v>
       </c>
@@ -55685,7 +55688,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>263</v>
       </c>
@@ -55762,7 +55765,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -55839,7 +55842,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>263</v>
       </c>
@@ -55916,7 +55919,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -55996,7 +55999,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>249</v>
       </c>
@@ -56076,7 +56079,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>306</v>
       </c>
@@ -56151,7 +56154,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -56231,7 +56234,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -56311,7 +56314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -56391,7 +56394,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -56471,7 +56474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -56551,7 +56554,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -56631,7 +56634,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -56711,7 +56714,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -56791,7 +56794,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -56871,7 +56874,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -56951,7 +56954,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -57031,7 +57034,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -57111,7 +57114,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>289</v>
       </c>
@@ -57191,7 +57194,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -57271,7 +57274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>289</v>
       </c>
@@ -57351,7 +57354,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>289</v>
       </c>

--- a/data/ALL_TRAITS.xlsx
+++ b/data/ALL_TRAITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC77E15-42F3-4802-80E0-DCD796843BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55265A57-FA2B-4C4F-B4B2-4C039152B358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,10 +1114,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1164,13 +1171,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2431,8 +2440,8 @@
   <dimension ref="A1:AB342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M349" sqref="M349"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U47" sqref="U47:W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,7 +2545,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2620,7 +2629,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2704,7 +2713,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2788,7 +2797,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2872,7 +2881,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2921,7 +2930,7 @@
         <v>8.9242999999999988</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.47365625395880256</v>
+        <v>3.3155937777116185</v>
       </c>
       <c r="R6" s="1">
         <v>1.2531766549054446</v>
@@ -2936,7 +2945,7 @@
         <v>11.80236</v>
       </c>
       <c r="V6" s="1">
-        <v>0.73962617535256747</v>
+        <v>4.4377570521154039</v>
       </c>
       <c r="W6" s="1">
         <v>1.811706730020066</v>
@@ -2958,7 +2967,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3007,7 +3016,7 @@
         <v>6.2288799999999993</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.19388310719901011</v>
+        <v>1.357181750393071</v>
       </c>
       <c r="R7" s="4">
         <v>0.5129664850650576</v>
@@ -3022,7 +3031,7 @@
         <v>8.0000699999999991</v>
       </c>
       <c r="V7" s="4">
-        <v>0.85230322994029939</v>
+        <v>5.1138193796417957</v>
       </c>
       <c r="W7" s="4">
         <v>2.0877080194797357</v>
@@ -3044,7 +3053,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3091,13 +3100,13 @@
         <v>162</v>
       </c>
       <c r="P8" s="1">
-        <v>408.4</v>
+        <v>0.40839999999999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>115.8283212</v>
+        <v>0.11582832123448911</v>
       </c>
       <c r="R8" s="1">
-        <v>51.8</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="S8" s="1">
         <v>5</v>
@@ -3106,13 +3115,13 @@
         <v>165</v>
       </c>
       <c r="U8" s="1">
-        <v>520.70000000000005</v>
+        <v>0.52070000000000005</v>
       </c>
       <c r="V8" s="1">
-        <v>70.436141289999995</v>
+        <v>7.0436141291243384E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>31.5</v>
+        <v>3.15E-2</v>
       </c>
       <c r="X8" s="1">
         <v>5</v>
@@ -3128,7 +3137,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3178,7 +3187,7 @@
         <v>4.5</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.0124611799999998</v>
+        <v>2.0124611797498111</v>
       </c>
       <c r="R9" s="1">
         <v>0.9</v>
@@ -3193,7 +3202,7 @@
         <v>5.9</v>
       </c>
       <c r="V9" s="1">
-        <v>2.0124611799999998</v>
+        <v>2.0124611797498111</v>
       </c>
       <c r="W9" s="1">
         <v>0.9</v>
@@ -3212,7 +3221,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3262,7 +3271,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.118033989</v>
+        <v>1.1180339887498949</v>
       </c>
       <c r="R10" s="1">
         <v>0.5</v>
@@ -3277,7 +3286,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="V10" s="1">
-        <v>2.0124611799999998</v>
+        <v>2.0124611797498111</v>
       </c>
       <c r="W10" s="1">
         <v>0.9</v>
@@ -3296,7 +3305,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3346,7 +3355,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.67082039299999996</v>
+        <v>0.67082039324993692</v>
       </c>
       <c r="R11" s="1">
         <v>0.3</v>
@@ -3361,7 +3370,7 @@
         <v>11.6</v>
       </c>
       <c r="V11" s="1">
-        <v>2.2360679769999998</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="W11" s="1">
         <v>1</v>
@@ -3380,7 +3389,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3426,13 +3435,13 @@
         <v>162</v>
       </c>
       <c r="P12" s="4">
-        <v>408.4</v>
+        <v>0.40839999999999999</v>
       </c>
       <c r="Q12" s="4">
-        <v>115.8283212</v>
+        <v>0.11582832123448911</v>
       </c>
       <c r="R12" s="4">
-        <v>51.8</v>
+        <v>5.1799999999999999E-2</v>
       </c>
       <c r="S12" s="1">
         <v>5</v>
@@ -3441,13 +3450,13 @@
         <v>165</v>
       </c>
       <c r="U12" s="4">
-        <v>371.1</v>
+        <v>0.37110000000000004</v>
       </c>
       <c r="V12" s="4">
-        <v>81.616481179999994</v>
+        <v>8.1616481178742317E-2</v>
       </c>
       <c r="W12" s="4">
-        <v>36.5</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="X12" s="1">
         <v>5</v>
@@ -3464,7 +3473,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3513,7 +3522,7 @@
         <v>4.5</v>
       </c>
       <c r="Q13" s="4">
-        <v>2.0124611799999998</v>
+        <v>2.0124611797498111</v>
       </c>
       <c r="R13" s="4">
         <v>0.9</v>
@@ -3528,7 +3537,7 @@
         <v>3.5</v>
       </c>
       <c r="V13" s="4">
-        <v>0.89442719100000001</v>
+        <v>0.89442719099991597</v>
       </c>
       <c r="W13" s="4">
         <v>0.4</v>
@@ -3548,7 +3557,7 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3597,7 +3606,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Q14" s="4">
-        <v>1.118033989</v>
+        <v>1.1180339887498949</v>
       </c>
       <c r="R14" s="4">
         <v>0.5</v>
@@ -3612,7 +3621,7 @@
         <v>4.7</v>
       </c>
       <c r="V14" s="4">
-        <v>1.565247584</v>
+        <v>1.5652475842498528</v>
       </c>
       <c r="W14" s="4">
         <v>0.7</v>
@@ -3632,7 +3641,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3681,7 +3690,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.67082039299999996</v>
+        <v>0.67082039324993692</v>
       </c>
       <c r="R15" s="4">
         <v>0.3</v>
@@ -3696,7 +3705,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V15" s="4">
-        <v>1.3416407859999999</v>
+        <v>1.3416407864998738</v>
       </c>
       <c r="W15" s="4">
         <v>0.6</v>
@@ -3716,7 +3725,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3753,7 +3762,7 @@
         <v>49</v>
       </c>
       <c r="M16" s="1">
-        <f>12*7</f>
+        <f t="shared" ref="M16:M23" si="0">12*7</f>
         <v>84</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -3763,13 +3772,13 @@
         <v>162</v>
       </c>
       <c r="P16" s="4">
-        <v>411.1</v>
+        <v>0.41110000000000002</v>
       </c>
       <c r="Q16" s="4">
-        <v>141.6817561</v>
+        <v>0.14168175605913416</v>
       </c>
       <c r="R16" s="4">
-        <v>40.9</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="S16" s="1">
         <v>12</v>
@@ -3778,13 +3787,13 @@
         <v>166</v>
       </c>
       <c r="U16" s="4">
-        <v>588.4</v>
+        <v>0.58839999999999992</v>
       </c>
       <c r="V16" s="4">
-        <v>189.83276849999999</v>
+        <v>0.18983276850954892</v>
       </c>
       <c r="W16" s="4">
-        <v>54.8</v>
+        <v>5.4799999999999995E-2</v>
       </c>
       <c r="X16" s="1">
         <v>12</v>
@@ -3801,7 +3810,7 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3838,7 +3847,7 @@
         <v>49</v>
       </c>
       <c r="M17" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -3851,7 +3860,7 @@
         <v>5.6</v>
       </c>
       <c r="Q17" s="4">
-        <v>1.7320508080000001</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="R17" s="4">
         <v>0.5</v>
@@ -3866,7 +3875,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="V17" s="4">
-        <v>4.156921938</v>
+        <v>4.1569219381653051</v>
       </c>
       <c r="W17" s="4">
         <v>1.2</v>
@@ -3886,7 +3895,7 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3923,7 +3932,7 @@
         <v>49</v>
       </c>
       <c r="M18" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -3936,7 +3945,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Q18" s="4">
-        <v>3.117691454</v>
+        <v>3.117691453623979</v>
       </c>
       <c r="R18" s="4">
         <v>0.9</v>
@@ -3951,7 +3960,7 @@
         <v>20.8</v>
       </c>
       <c r="V18" s="4">
-        <v>6.235382907</v>
+        <v>6.2353829072479581</v>
       </c>
       <c r="W18" s="4">
         <v>1.8</v>
@@ -3971,7 +3980,7 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4008,7 +4017,7 @@
         <v>49</v>
       </c>
       <c r="M19" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -4021,7 +4030,7 @@
         <v>9.41</v>
       </c>
       <c r="Q19" s="4">
-        <v>2.9791273889999998</v>
+        <v>2.9791273890184686</v>
       </c>
       <c r="R19" s="4">
         <v>0.86</v>
@@ -4036,7 +4045,7 @@
         <v>26</v>
       </c>
       <c r="V19" s="4">
-        <v>7.274613392</v>
+        <v>7.2746133917892841</v>
       </c>
       <c r="W19" s="4">
         <v>2.1</v>
@@ -4056,7 +4065,7 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4093,7 +4102,7 @@
         <v>31</v>
       </c>
       <c r="M20" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -4103,13 +4112,13 @@
         <v>162</v>
       </c>
       <c r="P20" s="4">
-        <v>411.1</v>
+        <v>0.41110000000000002</v>
       </c>
       <c r="Q20" s="4">
-        <v>141.6817561</v>
+        <v>0.14168175605913416</v>
       </c>
       <c r="R20" s="4">
-        <v>40.9</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="S20" s="1">
         <v>12</v>
@@ -4118,13 +4127,13 @@
         <v>166</v>
       </c>
       <c r="U20" s="4">
-        <v>481.5</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="V20" s="4">
-        <v>125.0540683</v>
+        <v>0.12505406830647292</v>
       </c>
       <c r="W20" s="4">
-        <v>36.1</v>
+        <v>3.61E-2</v>
       </c>
       <c r="X20" s="1">
         <v>12</v>
@@ -4141,7 +4150,7 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4178,7 +4187,7 @@
         <v>31</v>
       </c>
       <c r="M21" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -4191,7 +4200,7 @@
         <v>5.6</v>
       </c>
       <c r="Q21" s="4">
-        <v>1.7320508080000001</v>
+        <v>1.7320508075688772</v>
       </c>
       <c r="R21" s="4">
         <v>0.5</v>
@@ -4206,7 +4215,7 @@
         <v>5.4</v>
       </c>
       <c r="V21" s="4">
-        <v>2.078460969</v>
+        <v>2.0784609690826525</v>
       </c>
       <c r="W21" s="4">
         <v>0.6</v>
@@ -4226,7 +4235,7 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4263,7 +4272,7 @@
         <v>31</v>
       </c>
       <c r="M22" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -4276,7 +4285,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Q22" s="4">
-        <v>3.117691454</v>
+        <v>3.117691453623979</v>
       </c>
       <c r="R22" s="4">
         <v>0.9</v>
@@ -4291,7 +4300,7 @@
         <v>8.9</v>
       </c>
       <c r="V22" s="4">
-        <v>2.7712812919999998</v>
+        <v>2.7712812921102037</v>
       </c>
       <c r="W22" s="4">
         <v>0.8</v>
@@ -4311,7 +4320,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4348,7 +4357,7 @@
         <v>31</v>
       </c>
       <c r="M23" s="1">
-        <f>12*7</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -4361,7 +4370,7 @@
         <v>9.41</v>
       </c>
       <c r="Q23" s="4">
-        <v>2.9791273889999998</v>
+        <v>2.9791273890184686</v>
       </c>
       <c r="R23" s="4">
         <v>0.86</v>
@@ -4376,7 +4385,7 @@
         <v>9.66</v>
       </c>
       <c r="V23" s="4">
-        <v>4.7111781969999997</v>
+        <v>4.7111781965873467</v>
       </c>
       <c r="W23" s="4">
         <v>1.36</v>
@@ -4396,7 +4405,7 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4483,7 +4492,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4520,7 +4529,7 @@
         <v>31</v>
       </c>
       <c r="M25" s="2">
-        <f>30*6</f>
+        <f t="shared" ref="M25:M45" si="1">30*6</f>
         <v>180</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4533,7 +4542,7 @@
         <v>28.503199999999996</v>
       </c>
       <c r="Q25" s="3">
-        <v>0.6853069760542142</v>
+        <v>4.7971488323794995</v>
       </c>
       <c r="R25" s="3">
         <v>1.8131518303771472</v>
@@ -4548,7 +4557,7 @@
         <v>24.795000000000002</v>
       </c>
       <c r="V25" s="5">
-        <v>0.89406054045573446</v>
+        <v>8.0465448641016106</v>
       </c>
       <c r="W25" s="5">
         <v>2.6821816213672034</v>
@@ -4570,7 +4579,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4607,7 +4616,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4620,7 +4629,7 @@
         <v>27.4604</v>
       </c>
       <c r="Q26" s="3">
-        <v>1.0677448819156863</v>
+        <v>7.4742141734098038</v>
       </c>
       <c r="R26" s="3">
         <v>2.8249874212109334</v>
@@ -4635,7 +4644,7 @@
         <v>28.971000000000004</v>
       </c>
       <c r="V26" s="5">
-        <v>1.3843739415345839</v>
+        <v>12.459365473811257</v>
       </c>
       <c r="W26" s="5">
         <v>4.153121824603752</v>
@@ -4657,7 +4666,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4694,7 +4703,7 @@
         <v>31</v>
       </c>
       <c r="M27" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4707,7 +4716,7 @@
         <v>10.775599999999999</v>
       </c>
       <c r="Q27" s="3">
-        <v>0.66103664151737562</v>
+        <v>4.6272564906216296</v>
       </c>
       <c r="R27" s="3">
         <v>1.7489385609563304</v>
@@ -4722,7 +4731,7 @@
         <v>10.701000000000001</v>
       </c>
       <c r="V27" s="5">
-        <v>0.5037048342035243</v>
+        <v>4.5333435078317192</v>
       </c>
       <c r="W27" s="5">
         <v>1.511114502610573</v>
@@ -4744,7 +4753,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4781,7 +4790,7 @@
         <v>31</v>
       </c>
       <c r="M28" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -4794,7 +4803,7 @@
         <v>33.717199999999998</v>
       </c>
       <c r="Q28" s="3">
-        <v>1.8537719142332478</v>
+        <v>12.976403399632735</v>
       </c>
       <c r="R28" s="3">
         <v>4.9046194724973313</v>
@@ -4809,7 +4818,7 @@
         <v>33.147000000000006</v>
       </c>
       <c r="V28" s="5">
-        <v>0.91665876420836112</v>
+        <v>8.2499288778752504</v>
       </c>
       <c r="W28" s="5">
         <v>2.7499762926250835</v>
@@ -4831,7 +4840,7 @@
       </c>
     </row>
     <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4868,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="M29" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4878,13 +4887,13 @@
         <v>162</v>
       </c>
       <c r="P29" s="3">
-        <v>33.717199999999998</v>
+        <v>28.503199999999996</v>
       </c>
       <c r="Q29" s="3">
-        <v>1.8537719142332478</v>
+        <v>4.7971488323794995</v>
       </c>
       <c r="R29" s="3">
-        <v>4.9046194724973313</v>
+        <v>1.8131518303771472</v>
       </c>
       <c r="S29" s="2">
         <v>7</v>
@@ -4893,13 +4902,13 @@
         <v>165</v>
       </c>
       <c r="U29" s="5">
-        <v>42.030799999999999</v>
+        <v>31.788</v>
       </c>
       <c r="V29" s="5">
-        <v>1.4305946879707054</v>
+        <v>7.3993441655325105</v>
       </c>
       <c r="W29" s="5">
-        <v>4.0463328199741557</v>
+        <v>2.6160632178905767</v>
       </c>
       <c r="X29" s="2">
         <v>8</v>
@@ -4918,7 +4927,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4955,7 +4964,7 @@
         <v>31</v>
       </c>
       <c r="M30" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4965,13 +4974,13 @@
         <v>162</v>
       </c>
       <c r="P30" s="3">
-        <v>28.503199999999996</v>
+        <v>27.4604</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.6853069760542142</v>
+        <v>7.4742141734098038</v>
       </c>
       <c r="R30" s="3">
-        <v>1.8131518303771472</v>
+        <v>2.8249874212109334</v>
       </c>
       <c r="S30" s="2">
         <v>7</v>
@@ -4980,13 +4989,13 @@
         <v>165</v>
       </c>
       <c r="U30" s="5">
-        <v>31.788</v>
+        <v>43.443599999999996</v>
       </c>
       <c r="V30" s="5">
-        <v>0.9249180206915637</v>
+        <v>14.371204344800059</v>
       </c>
       <c r="W30" s="5">
-        <v>2.6160632178905767</v>
+        <v>5.0809880230128481</v>
       </c>
       <c r="X30" s="2">
         <v>8</v>
@@ -5005,7 +5014,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5042,7 +5051,7 @@
         <v>31</v>
       </c>
       <c r="M31" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -5052,13 +5061,13 @@
         <v>162</v>
       </c>
       <c r="P31" s="3">
-        <v>27.4604</v>
+        <v>10.775599999999999</v>
       </c>
       <c r="Q31" s="3">
-        <v>1.0677448819156863</v>
+        <v>4.6272564906216296</v>
       </c>
       <c r="R31" s="3">
-        <v>2.8249874212109334</v>
+        <v>1.7489385609563304</v>
       </c>
       <c r="S31" s="2">
         <v>7</v>
@@ -5067,13 +5076,13 @@
         <v>165</v>
       </c>
       <c r="U31" s="5">
-        <v>43.443599999999996</v>
+        <v>15.1876</v>
       </c>
       <c r="V31" s="5">
-        <v>1.7964005431000072</v>
+        <v>5.1268924310931281</v>
       </c>
       <c r="W31" s="5">
-        <v>5.0809880230128481</v>
+        <v>1.8126302022199676</v>
       </c>
       <c r="X31" s="2">
         <v>8</v>
@@ -5092,7 +5101,7 @@
       </c>
     </row>
     <row r="32" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5129,7 +5138,7 @@
         <v>31</v>
       </c>
       <c r="M32" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -5139,13 +5148,13 @@
         <v>162</v>
       </c>
       <c r="P32" s="3">
-        <v>10.775599999999999</v>
+        <v>33.717199999999998</v>
       </c>
       <c r="Q32" s="3">
-        <v>0.66103664151737562</v>
+        <v>12.976403399632735</v>
       </c>
       <c r="R32" s="3">
-        <v>1.7489385609563304</v>
+        <v>4.9046194724973313</v>
       </c>
       <c r="S32" s="2">
         <v>7</v>
@@ -5154,13 +5163,13 @@
         <v>165</v>
       </c>
       <c r="U32" s="5">
-        <v>15.1876</v>
+        <v>42.030799999999999</v>
       </c>
       <c r="V32" s="5">
-        <v>0.64086155388664101</v>
+        <v>11.444757503765645</v>
       </c>
       <c r="W32" s="5">
-        <v>1.8126302022199676</v>
+        <v>4.0463328199741557</v>
       </c>
       <c r="X32" s="2">
         <v>8</v>
@@ -5179,7 +5188,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5216,7 +5225,7 @@
         <v>31</v>
       </c>
       <c r="M33" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5229,7 +5238,7 @@
         <v>28.503199999999996</v>
       </c>
       <c r="Q33" s="3">
-        <v>0.6853069760542142</v>
+        <v>4.7971488323794995</v>
       </c>
       <c r="R33" s="3">
         <v>1.8131518303771472</v>
@@ -5244,10 +5253,10 @@
         <v>25.133900000000001</v>
       </c>
       <c r="V33" s="5">
-        <v>2.562520070598906</v>
+        <v>7.6563751436303065</v>
       </c>
       <c r="W33" s="5">
-        <v>7.6875602117967183</v>
+        <v>2.552125047876769</v>
       </c>
       <c r="X33" s="2">
         <v>9</v>
@@ -5266,7 +5275,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5303,7 +5312,7 @@
         <v>31</v>
       </c>
       <c r="M34" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5316,7 +5325,7 @@
         <v>27.4604</v>
       </c>
       <c r="Q34" s="3">
-        <v>1.0677448819156863</v>
+        <v>7.4742141734098038</v>
       </c>
       <c r="R34" s="3">
         <v>2.8249874212109334</v>
@@ -5331,10 +5340,10 @@
         <v>29.6098</v>
       </c>
       <c r="V34" s="5">
-        <v>3.0470740371342768</v>
+        <v>9.75810249023856</v>
       </c>
       <c r="W34" s="5">
-        <v>9.1412221114028309</v>
+        <v>3.2527008300795202</v>
       </c>
       <c r="X34" s="2">
         <v>9</v>
@@ -5353,7 +5362,7 @@
       </c>
     </row>
     <row r="35" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5390,7 +5399,7 @@
         <v>31</v>
       </c>
       <c r="M35" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -5403,7 +5412,7 @@
         <v>10.775599999999999</v>
       </c>
       <c r="Q35" s="3">
-        <v>0.66103664151737562</v>
+        <v>4.6272564906216296</v>
       </c>
       <c r="R35" s="3">
         <v>1.7489385609563304</v>
@@ -5418,10 +5427,10 @@
         <v>10.673299999999999</v>
       </c>
       <c r="V35" s="5">
-        <v>1.1307165790870062</v>
+        <v>4.2677803141680091</v>
       </c>
       <c r="W35" s="5">
-        <v>3.3921497372610188</v>
+        <v>1.422593438056003</v>
       </c>
       <c r="X35" s="2">
         <v>9</v>
@@ -5440,7 +5449,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5477,7 +5486,7 @@
         <v>31</v>
       </c>
       <c r="M36" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5490,7 +5499,7 @@
         <v>33.717199999999998</v>
       </c>
       <c r="Q36" s="3">
-        <v>1.8537719142332478</v>
+        <v>12.976403399632735</v>
       </c>
       <c r="R36" s="3">
         <v>4.9046194724973313</v>
@@ -5505,10 +5514,10 @@
         <v>37.184400000000004</v>
       </c>
       <c r="V36" s="5">
-        <v>3.8544363842201363</v>
+        <v>12.942725487315261</v>
       </c>
       <c r="W36" s="5">
-        <v>11.563309152660409</v>
+        <v>4.3142418291050868</v>
       </c>
       <c r="X36" s="2">
         <v>9</v>
@@ -5527,7 +5536,7 @@
       </c>
     </row>
     <row r="37" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5564,7 +5573,7 @@
         <v>31</v>
       </c>
       <c r="M37" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5577,7 +5586,7 @@
         <v>17.615000000000002</v>
       </c>
       <c r="Q37" s="3">
-        <v>0.61412508904945406</v>
+        <v>4.9130007123956334</v>
       </c>
       <c r="R37" s="3">
         <v>1.7370080598546456</v>
@@ -5592,7 +5601,7 @@
         <v>17.329000000000001</v>
       </c>
       <c r="V37" s="5">
-        <v>0.65986536884428171</v>
+        <v>5.2789229507542546</v>
       </c>
       <c r="W37" s="5">
         <v>1.866381107919816</v>
@@ -5614,7 +5623,7 @@
       </c>
     </row>
     <row r="38" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5651,7 +5660,7 @@
         <v>31</v>
       </c>
       <c r="M38" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5664,7 +5673,7 @@
         <v>31.164999999999999</v>
       </c>
       <c r="Q38" s="3">
-        <v>1.6730589499476705</v>
+        <v>13.384471599581365</v>
       </c>
       <c r="R38" s="3">
         <v>4.7321253153313698</v>
@@ -5679,7 +5688,7 @@
         <v>27.993000000000002</v>
       </c>
       <c r="V38" s="5">
-        <v>1.3196862202811697</v>
+        <v>10.557489762249359</v>
       </c>
       <c r="W38" s="5">
         <v>3.7326363015970361</v>
@@ -5701,7 +5710,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5738,7 +5747,7 @@
         <v>31</v>
       </c>
       <c r="M39" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5751,7 +5760,7 @@
         <v>9.2140000000000004</v>
       </c>
       <c r="Q39" s="3">
-        <v>0.58587756400121693</v>
+        <v>4.6870205120097355</v>
       </c>
       <c r="R39" s="3">
         <v>1.6571119938012639</v>
@@ -5766,7 +5775,7 @@
         <v>7.7313999999999998</v>
       </c>
       <c r="V39" s="5">
-        <v>0.65981408366296646</v>
+        <v>5.2785126693037325</v>
       </c>
       <c r="W39" s="5">
         <v>1.8662360515218865</v>
@@ -5788,7 +5797,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -5825,7 +5834,7 @@
         <v>31</v>
       </c>
       <c r="M40" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -5834,13 +5843,13 @@
       <c r="O40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="5">
         <v>17.615000000000002</v>
       </c>
-      <c r="Q40" s="3">
-        <v>0.61412508904945406</v>
-      </c>
-      <c r="R40" s="3">
+      <c r="Q40" s="5">
+        <v>4.9130007123956334</v>
+      </c>
+      <c r="R40" s="5">
         <v>1.7370080598546456</v>
       </c>
       <c r="S40" s="2">
@@ -5853,7 +5862,7 @@
         <v>18.414400000000001</v>
       </c>
       <c r="V40" s="5">
-        <v>0.51590357626207639</v>
+        <v>4.1272286100966111</v>
       </c>
       <c r="W40" s="5">
         <v>1.4591956688532215</v>
@@ -5875,7 +5884,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -5912,7 +5921,7 @@
         <v>31</v>
       </c>
       <c r="M41" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5921,13 +5930,13 @@
       <c r="O41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="5">
         <v>31.164999999999999</v>
       </c>
-      <c r="Q41" s="3">
-        <v>1.6730589499476705</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="Q41" s="5">
+        <v>13.384471599581365</v>
+      </c>
+      <c r="R41" s="5">
         <v>4.7321253153313698</v>
       </c>
       <c r="S41" s="2">
@@ -5940,7 +5949,7 @@
         <v>25.455199999999998</v>
       </c>
       <c r="V41" s="5">
-        <v>0.81077069507968758</v>
+        <v>6.4861655606375015</v>
       </c>
       <c r="W41" s="5">
         <v>2.293205825912711</v>
@@ -5962,7 +5971,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -5999,7 +6008,7 @@
         <v>31</v>
       </c>
       <c r="M42" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -6008,13 +6017,13 @@
       <c r="O42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="5">
         <v>9.2140000000000004</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0.58587756400121693</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="5">
+        <v>4.6870205120097355</v>
+      </c>
+      <c r="R42" s="5">
         <v>1.6571119938012639</v>
       </c>
       <c r="S42" s="2">
@@ -6027,7 +6036,7 @@
         <v>9.2072000000000003</v>
       </c>
       <c r="V42" s="5">
-        <v>0.8670299764137338</v>
+        <v>6.9362398113098713</v>
       </c>
       <c r="W42" s="5">
         <v>2.4523311032566544</v>
@@ -6049,7 +6058,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -6086,7 +6095,7 @@
         <v>31</v>
       </c>
       <c r="M43" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6099,7 +6108,7 @@
         <v>17.615000000000002</v>
       </c>
       <c r="Q43" s="3">
-        <v>0.61412508904945406</v>
+        <v>4.9130007123956334</v>
       </c>
       <c r="R43" s="3">
         <v>1.7370080598546456</v>
@@ -6114,7 +6123,7 @@
         <v>14.616000000000001</v>
       </c>
       <c r="V43" s="5">
-        <v>0.79877243630460826</v>
+        <v>6.3901794904368669</v>
       </c>
       <c r="W43" s="5">
         <v>2.2592696253435527</v>
@@ -6136,7 +6145,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6173,7 +6182,7 @@
         <v>31</v>
       </c>
       <c r="M44" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -6186,7 +6195,7 @@
         <v>31.164999999999999</v>
       </c>
       <c r="Q44" s="3">
-        <v>1.6730589499476705</v>
+        <v>13.384471599581365</v>
       </c>
       <c r="R44" s="3">
         <v>4.7321253153313698</v>
@@ -6201,7 +6210,7 @@
         <v>22.968</v>
       </c>
       <c r="V44" s="5">
-        <v>1.2000176670574476</v>
+        <v>9.6001413364595827</v>
       </c>
       <c r="W44" s="5">
         <v>3.3941625196799277</v>
@@ -6223,7 +6232,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -6260,7 +6269,7 @@
         <v>31</v>
       </c>
       <c r="M45" s="2">
-        <f>30*6</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -6273,7 +6282,7 @@
         <v>9.2140000000000004</v>
       </c>
       <c r="Q45" s="3">
-        <v>0.58587756400121693</v>
+        <v>4.6870205120097355</v>
       </c>
       <c r="R45" s="3">
         <v>1.6571119938012639</v>
@@ -6288,7 +6297,7 @@
         <v>4.9590000000000005</v>
       </c>
       <c r="V45" s="5">
-        <v>0.52619367156969876</v>
+        <v>4.2095493725575901</v>
       </c>
       <c r="W45" s="5">
         <v>1.4883004535375242</v>
@@ -6310,7 +6319,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -6396,7 +6405,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -6446,7 +6455,7 @@
         <v>5.9006628000000001</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.19010661980795726</v>
+        <v>2.281279437695487</v>
       </c>
       <c r="R47" s="4">
         <v>0.65854864872512375</v>
@@ -6461,7 +6470,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="V47" s="4">
-        <v>0.39523031260266467</v>
+        <v>4.7427637512319754</v>
       </c>
       <c r="W47" s="4">
         <v>1.3691179642382902</v>
@@ -6483,7 +6492,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -6532,7 +6541,7 @@
         <v>5.9006628000000001</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.19010661980795726</v>
+        <v>2.281279437695487</v>
       </c>
       <c r="R48" s="4">
         <v>0.65854864872512375</v>
@@ -6547,7 +6556,7 @@
         <v>8.7983999999999991</v>
       </c>
       <c r="V48" s="4">
-        <v>0.31952244052648315</v>
+        <v>3.8342692863177974</v>
       </c>
       <c r="W48" s="4">
         <v>1.1068582023005473</v>
@@ -6569,7 +6578,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6653,7 +6662,7 @@
       <c r="AB49" s="4"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -6737,7 +6746,7 @@
       <c r="AB50" s="4"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -6821,7 +6830,7 @@
       <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -6904,7 +6913,7 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -6987,7 +6996,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -7070,7 +7079,7 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -7153,7 +7162,7 @@
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -7236,7 +7245,7 @@
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -7319,7 +7328,7 @@
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -7402,7 +7411,7 @@
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -7485,7 +7494,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -7568,7 +7577,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -7652,7 +7661,7 @@
       <c r="AB61" s="4"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -7735,7 +7744,7 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -7818,7 +7827,7 @@
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7901,7 +7910,7 @@
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -7986,7 +7995,7 @@
       <c r="AB65" s="4"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -29078,7 +29087,7 @@
         <v>31</v>
       </c>
       <c r="M315" s="1">
-        <f>30*6</f>
+        <f t="shared" ref="M315:M326" si="2">30*6</f>
         <v>180</v>
       </c>
       <c r="N315" s="1" t="s">
@@ -29162,7 +29171,7 @@
         <v>31</v>
       </c>
       <c r="M316" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N316" s="1" t="s">
@@ -29246,7 +29255,7 @@
         <v>31</v>
       </c>
       <c r="M317" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N317" s="1" t="s">
@@ -29330,7 +29339,7 @@
         <v>31</v>
       </c>
       <c r="M318" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N318" s="1" t="s">
@@ -29414,7 +29423,7 @@
         <v>31</v>
       </c>
       <c r="M319" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N319" s="1" t="s">
@@ -29498,7 +29507,7 @@
         <v>31</v>
       </c>
       <c r="M320" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N320" s="1" t="s">
@@ -29582,7 +29591,7 @@
         <v>31</v>
       </c>
       <c r="M321" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N321" s="1" t="s">
@@ -29666,7 +29675,7 @@
         <v>31</v>
       </c>
       <c r="M322" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N322" s="1" t="s">
@@ -29750,7 +29759,7 @@
         <v>31</v>
       </c>
       <c r="M323" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N323" s="1" t="s">
@@ -29834,7 +29843,7 @@
         <v>31</v>
       </c>
       <c r="M324" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N324" s="1" t="s">
@@ -29918,7 +29927,7 @@
         <v>31</v>
       </c>
       <c r="M325" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N325" s="1" t="s">
@@ -30002,7 +30011,7 @@
         <v>31</v>
       </c>
       <c r="M326" s="1">
-        <f>30*6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="N326" s="1" t="s">
@@ -31396,7 +31405,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB343">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB343">
     <sortCondition ref="A2:A343"/>
     <sortCondition ref="C2:C343"/>
     <sortCondition ref="M2:M343"/>
